--- a/Stückliste/ES_Stückliste_G3_30-10-19.xlsx
+++ b/Stückliste/ES_Stückliste_G3_30-10-19.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEAABF3-B522-4914-BD83-513027C51F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Nr.</t>
   </si>
@@ -207,16 +216,28 @@
   </si>
   <si>
     <t>https://www.mouser.de/ProductDetail/RF360/B39162B4327P810?qs=sGAEpiMZZMvfFCidbTccA7zgl7Tx407969qKMV2MTGk%3D</t>
+  </si>
+  <si>
+    <t>Patch Antenna</t>
+  </si>
+  <si>
+    <t>538-206640-0001</t>
+  </si>
+  <si>
+    <t>206640-0001</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Molex/206640-0001?qs=sGAEpiMZZMve4%2FbfQkoj%252BEL4z6r7KheRi10YM%252BkT0DM%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +260,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -283,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -306,10 +333,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -325,7 +358,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -400,6 +433,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -435,6 +485,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,11 +677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,27 +1100,58 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="H16" s="11">
+        <f>F16*G16</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G21" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H21" s="3">
         <f>SUM(H2:H20)</f>
-        <v>109.00999999999999</v>
+        <v>114.50999999999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{3C23E83B-1B5F-4845-93BC-378A878199BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Stückliste/ES_Stückliste_G3_30-10-19.xlsx
+++ b/Stückliste/ES_Stückliste_G3_30-10-19.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEAABF3-B522-4914-BD83-513027C51F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Nr.</t>
   </si>
@@ -218,9 +217,6 @@
     <t>https://www.mouser.de/ProductDetail/RF360/B39162B4327P810?qs=sGAEpiMZZMvfFCidbTccA7zgl7Tx407969qKMV2MTGk%3D</t>
   </si>
   <si>
-    <t>Patch Antenna</t>
-  </si>
-  <si>
     <t>538-206640-0001</t>
   </si>
   <si>
@@ -228,12 +224,36 @@
   </si>
   <si>
     <t>https://www.mouser.de/ProductDetail/Molex/206640-0001?qs=sGAEpiMZZMve4%2FbfQkoj%252BEL4z6r7KheRi10YM%252BkT0DM%3D</t>
+  </si>
+  <si>
+    <t>Patch Antenne</t>
+  </si>
+  <si>
+    <t>nF</t>
+  </si>
+  <si>
+    <t>pF</t>
+  </si>
+  <si>
+    <t>uF</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Verpackung</t>
+  </si>
+  <si>
+    <t>Kondensatoren Keramik</t>
+  </si>
+  <si>
+    <t>Anzahl Bestellt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -310,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -339,10 +359,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -358,7 +379,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -433,23 +454,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -485,23 +489,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,16 +1092,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
@@ -1127,10 +1114,53 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" s="12"/>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <v>805</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>805</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
       <c r="G21" s="8" t="s">
         <v>39</v>
       </c>
@@ -1139,17 +1169,160 @@
         <v>114.50999999999999</v>
       </c>
     </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <v>805</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24">
+        <v>805</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25">
+        <v>805</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>805</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27">
+        <v>805</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>805</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>805</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>805</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>805</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>805</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B20:C31">
+    <sortCondition ref="B20"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E16" r:id="rId9" xr:uid="{3C23E83B-1B5F-4845-93BC-378A878199BC}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E16" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
